--- a/zerodha_orders_template_OCO - Copy.xlsx
+++ b/zerodha_orders_template_OCO - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trading_Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDA8660-83AE-4766-984B-78EDBA52BBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B0B2B4-3D67-4725-9015-FDEEBB29353F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B3" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="NIFTY" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'B1'!$A$1:$S$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'B2'!$A$1:$S$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'B3'!$A$1:$S$85</definedName>
   </definedNames>
@@ -658,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF07B949-9FEA-44D4-B937-511BEC59CE64}">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -747,7 +748,7 @@
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>SENSEX!Q3</f>
-        <v>SENSEX25D1885600CE</v>
+        <v>SENSEX25D1884600CE</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -791,7 +792,7 @@
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>SENSEX!Q4</f>
-        <v>SENSEX25D1885700CE</v>
+        <v>SENSEX25D1884700CE</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -835,7 +836,7 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>SENSEX!Q5</f>
-        <v>SENSEX25D1885800CE</v>
+        <v>SENSEX25D1884800CE</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -879,7 +880,7 @@
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>SENSEX!Q6</f>
-        <v>SENSEX25D1885900CE</v>
+        <v>SENSEX25D1884900CE</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -923,7 +924,7 @@
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>SENSEX!Q7</f>
-        <v>SENSEX25D1886000CE</v>
+        <v>SENSEX25D1885000CE</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -967,7 +968,7 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>SENSEX!Q8</f>
-        <v>SENSEX25D1886300CE</v>
+        <v>SENSEX25D1885300CE</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -1011,7 +1012,7 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>SENSEX!Q9</f>
-        <v>SENSEX25D1886600CE</v>
+        <v>SENSEX25D1885600CE</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -1055,7 +1056,7 @@
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>SENSEX!Q10</f>
-        <v>SENSEX25D1886800CE</v>
+        <v>SENSEX25D1885800CE</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -1099,7 +1100,7 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>SENSEX!Q11</f>
-        <v>SENSEX25D1886000PE</v>
+        <v>SENSEX25D1885000PE</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1143,7 +1144,7 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>SENSEX!Q12</f>
-        <v>SENSEX25D1885900PE</v>
+        <v>SENSEX25D1884900PE</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1187,7 +1188,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>SENSEX!Q13</f>
-        <v>SENSEX25D1885800PE</v>
+        <v>SENSEX25D1884800PE</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1231,7 +1232,7 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>SENSEX!Q14</f>
-        <v>SENSEX25D1885700PE</v>
+        <v>SENSEX25D1884700PE</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1275,7 +1276,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>SENSEX!Q15</f>
-        <v>SENSEX25D1885600PE</v>
+        <v>SENSEX25D1884600PE</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1319,7 +1320,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>SENSEX!Q16</f>
-        <v>SENSEX25D1885300PE</v>
+        <v>SENSEX25D1884300PE</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1363,7 +1364,7 @@
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>SENSEX!Q17</f>
-        <v>SENSEX25D1885000PE</v>
+        <v>SENSEX25D1884000PE</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1407,7 +1408,7 @@
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>SENSEX!Q18</f>
-        <v>SENSEX25D1884800PE</v>
+        <v>SENSEX25D1883800PE</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1451,7 +1452,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>SENSEX!Q19</f>
-        <v>SENSEX25D1884800CE</v>
+        <v>SENSEX25D1883800CE</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1495,7 +1496,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>SENSEX!Q20</f>
-        <v>SENSEX25D1884900CE</v>
+        <v>SENSEX25D1883900CE</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1539,7 +1540,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>SENSEX!Q21</f>
-        <v>SENSEX25D1885000CE</v>
+        <v>SENSEX25D1884000CE</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1583,7 +1584,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>SENSEX!Q22</f>
-        <v>SENSEX25D1885300CE</v>
+        <v>SENSEX25D1884300CE</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1627,7 +1628,7 @@
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>SENSEX!Q23</f>
-        <v>SENSEX25D1885600CE</v>
+        <v>SENSEX25D1884600CE</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1671,7 +1672,7 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>SENSEX!Q24</f>
-        <v>SENSEX25D1885800CE</v>
+        <v>SENSEX25D1884800CE</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1715,7 +1716,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>SENSEX!Q25</f>
-        <v>SENSEX25D1886800PE</v>
+        <v>SENSEX25D1885800PE</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1759,7 +1760,7 @@
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>SENSEX!Q26</f>
-        <v>SENSEX25D1886700PE</v>
+        <v>SENSEX25D1885700PE</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1803,7 +1804,7 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>SENSEX!Q27</f>
-        <v>SENSEX25D1886600PE</v>
+        <v>SENSEX25D1885600PE</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -1847,7 +1848,7 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>SENSEX!Q28</f>
-        <v>SENSEX25D1886300PE</v>
+        <v>SENSEX25D1885300PE</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -1891,7 +1892,7 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>SENSEX!Q29</f>
-        <v>SENSEX25D1886000PE</v>
+        <v>SENSEX25D1885000PE</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -1935,7 +1936,7 @@
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>SENSEX!Q30</f>
-        <v>SENSEX25D1885800PE</v>
+        <v>SENSEX25D1884800PE</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -1979,7 +1980,7 @@
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>SENSEX!Q3</f>
-        <v>SENSEX25D1885600CE</v>
+        <v>SENSEX25D1884600CE</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2033,7 +2034,7 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>SENSEX!Q4</f>
-        <v>SENSEX25D1885700CE</v>
+        <v>SENSEX25D1884700CE</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2087,7 +2088,7 @@
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>SENSEX!Q5</f>
-        <v>SENSEX25D1885800CE</v>
+        <v>SENSEX25D1884800CE</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -2141,7 +2142,7 @@
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>SENSEX!Q6</f>
-        <v>SENSEX25D1885900CE</v>
+        <v>SENSEX25D1884900CE</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -2195,7 +2196,7 @@
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>SENSEX!Q7</f>
-        <v>SENSEX25D1886000CE</v>
+        <v>SENSEX25D1885000CE</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -2249,7 +2250,7 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>SENSEX!Q8</f>
-        <v>SENSEX25D1886300CE</v>
+        <v>SENSEX25D1885300CE</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -2303,7 +2304,7 @@
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>SENSEX!Q9</f>
-        <v>SENSEX25D1886600CE</v>
+        <v>SENSEX25D1885600CE</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -2357,7 +2358,7 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>SENSEX!Q10</f>
-        <v>SENSEX25D1886800CE</v>
+        <v>SENSEX25D1885800CE</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -2411,7 +2412,7 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>SENSEX!Q11</f>
-        <v>SENSEX25D1886000PE</v>
+        <v>SENSEX25D1885000PE</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -2465,7 +2466,7 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>SENSEX!Q12</f>
-        <v>SENSEX25D1885900PE</v>
+        <v>SENSEX25D1884900PE</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -2519,7 +2520,7 @@
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>SENSEX!Q13</f>
-        <v>SENSEX25D1885800PE</v>
+        <v>SENSEX25D1884800PE</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -2573,7 +2574,7 @@
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>SENSEX!Q14</f>
-        <v>SENSEX25D1885700PE</v>
+        <v>SENSEX25D1884700PE</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -2627,7 +2628,7 @@
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>SENSEX!Q15</f>
-        <v>SENSEX25D1885600PE</v>
+        <v>SENSEX25D1884600PE</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -2681,7 +2682,7 @@
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>SENSEX!Q16</f>
-        <v>SENSEX25D1885300PE</v>
+        <v>SENSEX25D1884300PE</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -2735,7 +2736,7 @@
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>SENSEX!Q17</f>
-        <v>SENSEX25D1885000PE</v>
+        <v>SENSEX25D1884000PE</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -2789,7 +2790,7 @@
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>SENSEX!Q18</f>
-        <v>SENSEX25D1884800PE</v>
+        <v>SENSEX25D1883800PE</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -2843,7 +2844,7 @@
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>SENSEX!Q19</f>
-        <v>SENSEX25D1884800CE</v>
+        <v>SENSEX25D1883800CE</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -2897,7 +2898,7 @@
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>SENSEX!Q20</f>
-        <v>SENSEX25D1884900CE</v>
+        <v>SENSEX25D1883900CE</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -2951,7 +2952,7 @@
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>SENSEX!Q21</f>
-        <v>SENSEX25D1885000CE</v>
+        <v>SENSEX25D1884000CE</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -3005,7 +3006,7 @@
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>SENSEX!Q22</f>
-        <v>SENSEX25D1885300CE</v>
+        <v>SENSEX25D1884300CE</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -3059,7 +3060,7 @@
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>SENSEX!Q23</f>
-        <v>SENSEX25D1885600CE</v>
+        <v>SENSEX25D1884600CE</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -3113,7 +3114,7 @@
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>SENSEX!Q24</f>
-        <v>SENSEX25D1885800CE</v>
+        <v>SENSEX25D1884800CE</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
@@ -3167,7 +3168,7 @@
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>SENSEX!Q25</f>
-        <v>SENSEX25D1886800PE</v>
+        <v>SENSEX25D1885800PE</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
@@ -3221,7 +3222,7 @@
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>SENSEX!Q26</f>
-        <v>SENSEX25D1886700PE</v>
+        <v>SENSEX25D1885700PE</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -3275,7 +3276,7 @@
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>SENSEX!Q27</f>
-        <v>SENSEX25D1886600PE</v>
+        <v>SENSEX25D1885600PE</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
@@ -3329,7 +3330,7 @@
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>SENSEX!Q28</f>
-        <v>SENSEX25D1886300PE</v>
+        <v>SENSEX25D1885300PE</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
@@ -3383,7 +3384,7 @@
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>SENSEX!Q29</f>
-        <v>SENSEX25D1886000PE</v>
+        <v>SENSEX25D1885000PE</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -3437,7 +3438,7 @@
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>SENSEX!Q30</f>
-        <v>SENSEX25D1885800PE</v>
+        <v>SENSEX25D1884800PE</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -3491,7 +3492,7 @@
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>SENSEX!Q3</f>
-        <v>SENSEX25D1885600CE</v>
+        <v>SENSEX25D1884600CE</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -3545,7 +3546,7 @@
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>SENSEX!Q4</f>
-        <v>SENSEX25D1885700CE</v>
+        <v>SENSEX25D1884700CE</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -3599,7 +3600,7 @@
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>SENSEX!Q5</f>
-        <v>SENSEX25D1885800CE</v>
+        <v>SENSEX25D1884800CE</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
@@ -3653,7 +3654,7 @@
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>SENSEX!Q6</f>
-        <v>SENSEX25D1885900CE</v>
+        <v>SENSEX25D1884900CE</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -3707,7 +3708,7 @@
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>SENSEX!Q7</f>
-        <v>SENSEX25D1886000CE</v>
+        <v>SENSEX25D1885000CE</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
@@ -3761,7 +3762,7 @@
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>SENSEX!Q8</f>
-        <v>SENSEX25D1886300CE</v>
+        <v>SENSEX25D1885300CE</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -3815,7 +3816,7 @@
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>SENSEX!Q9</f>
-        <v>SENSEX25D1886600CE</v>
+        <v>SENSEX25D1885600CE</v>
       </c>
       <c r="B64" t="s">
         <v>26</v>
@@ -3869,7 +3870,7 @@
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>SENSEX!Q10</f>
-        <v>SENSEX25D1886800CE</v>
+        <v>SENSEX25D1885800CE</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -3923,7 +3924,7 @@
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>SENSEX!Q11</f>
-        <v>SENSEX25D1886000PE</v>
+        <v>SENSEX25D1885000PE</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
@@ -3977,7 +3978,7 @@
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>SENSEX!Q12</f>
-        <v>SENSEX25D1885900PE</v>
+        <v>SENSEX25D1884900PE</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -4031,7 +4032,7 @@
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>SENSEX!Q13</f>
-        <v>SENSEX25D1885800PE</v>
+        <v>SENSEX25D1884800PE</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -4085,7 +4086,7 @@
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>SENSEX!Q14</f>
-        <v>SENSEX25D1885700PE</v>
+        <v>SENSEX25D1884700PE</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
@@ -4139,7 +4140,7 @@
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>SENSEX!Q15</f>
-        <v>SENSEX25D1885600PE</v>
+        <v>SENSEX25D1884600PE</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
@@ -4193,7 +4194,7 @@
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f>SENSEX!Q16</f>
-        <v>SENSEX25D1885300PE</v>
+        <v>SENSEX25D1884300PE</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -4247,7 +4248,7 @@
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f>SENSEX!Q17</f>
-        <v>SENSEX25D1885000PE</v>
+        <v>SENSEX25D1884000PE</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
@@ -4301,7 +4302,7 @@
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f>SENSEX!Q18</f>
-        <v>SENSEX25D1884800PE</v>
+        <v>SENSEX25D1883800PE</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
@@ -4355,7 +4356,7 @@
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f>SENSEX!Q19</f>
-        <v>SENSEX25D1884800CE</v>
+        <v>SENSEX25D1883800CE</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -4409,7 +4410,7 @@
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f>SENSEX!Q20</f>
-        <v>SENSEX25D1884900CE</v>
+        <v>SENSEX25D1883900CE</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -4463,7 +4464,7 @@
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f>SENSEX!Q21</f>
-        <v>SENSEX25D1885000CE</v>
+        <v>SENSEX25D1884000CE</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
@@ -4517,7 +4518,7 @@
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f>SENSEX!Q22</f>
-        <v>SENSEX25D1885300CE</v>
+        <v>SENSEX25D1884300CE</v>
       </c>
       <c r="B77" t="s">
         <v>26</v>
@@ -4571,7 +4572,7 @@
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
         <f>SENSEX!Q23</f>
-        <v>SENSEX25D1885600CE</v>
+        <v>SENSEX25D1884600CE</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
@@ -4625,7 +4626,7 @@
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f>SENSEX!Q24</f>
-        <v>SENSEX25D1885800CE</v>
+        <v>SENSEX25D1884800CE</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
@@ -4679,7 +4680,7 @@
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
         <f>SENSEX!Q25</f>
-        <v>SENSEX25D1886800PE</v>
+        <v>SENSEX25D1885800PE</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
@@ -4733,7 +4734,7 @@
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
         <f>SENSEX!Q26</f>
-        <v>SENSEX25D1886700PE</v>
+        <v>SENSEX25D1885700PE</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
@@ -4787,7 +4788,7 @@
     <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
         <f>SENSEX!Q27</f>
-        <v>SENSEX25D1886600PE</v>
+        <v>SENSEX25D1885600PE</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
@@ -4841,7 +4842,7 @@
     <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" t="str">
         <f>SENSEX!Q28</f>
-        <v>SENSEX25D1886300PE</v>
+        <v>SENSEX25D1885300PE</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
@@ -4895,7 +4896,7 @@
     <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" t="str">
         <f>SENSEX!Q29</f>
-        <v>SENSEX25D1886000PE</v>
+        <v>SENSEX25D1885000PE</v>
       </c>
       <c r="B84" t="s">
         <v>26</v>
@@ -4949,7 +4950,7 @@
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" t="str">
         <f>SENSEX!Q30</f>
-        <v>SENSEX25D1885800PE</v>
+        <v>SENSEX25D1884800PE</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
@@ -5009,8 +5010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA6645B-CDED-4C1A-9818-814E08AE099F}">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5098,7 +5099,7 @@
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>SENSEX!Q3</f>
-        <v>SENSEX25D1885600CE</v>
+        <v>SENSEX25D1884600CE</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -5142,7 +5143,7 @@
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>SENSEX!Q4</f>
-        <v>SENSEX25D1885700CE</v>
+        <v>SENSEX25D1884700CE</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -5186,7 +5187,7 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>SENSEX!Q5</f>
-        <v>SENSEX25D1885800CE</v>
+        <v>SENSEX25D1884800CE</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -5230,7 +5231,7 @@
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>SENSEX!Q6</f>
-        <v>SENSEX25D1885900CE</v>
+        <v>SENSEX25D1884900CE</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -5274,7 +5275,7 @@
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>SENSEX!Q7</f>
-        <v>SENSEX25D1886000CE</v>
+        <v>SENSEX25D1885000CE</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -5318,7 +5319,7 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>SENSEX!Q8</f>
-        <v>SENSEX25D1886300CE</v>
+        <v>SENSEX25D1885300CE</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -5362,7 +5363,7 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>SENSEX!Q9</f>
-        <v>SENSEX25D1886600CE</v>
+        <v>SENSEX25D1885600CE</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -5406,7 +5407,7 @@
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>SENSEX!Q10</f>
-        <v>SENSEX25D1886800CE</v>
+        <v>SENSEX25D1885800CE</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -5450,7 +5451,7 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>SENSEX!Q11</f>
-        <v>SENSEX25D1886000PE</v>
+        <v>SENSEX25D1885000PE</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -5494,7 +5495,7 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>SENSEX!Q12</f>
-        <v>SENSEX25D1885900PE</v>
+        <v>SENSEX25D1884900PE</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -5538,7 +5539,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>SENSEX!Q13</f>
-        <v>SENSEX25D1885800PE</v>
+        <v>SENSEX25D1884800PE</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -5582,7 +5583,7 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>SENSEX!Q14</f>
-        <v>SENSEX25D1885700PE</v>
+        <v>SENSEX25D1884700PE</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -5626,7 +5627,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>SENSEX!Q15</f>
-        <v>SENSEX25D1885600PE</v>
+        <v>SENSEX25D1884600PE</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -5670,7 +5671,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>SENSEX!Q16</f>
-        <v>SENSEX25D1885300PE</v>
+        <v>SENSEX25D1884300PE</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -5714,7 +5715,7 @@
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>SENSEX!Q17</f>
-        <v>SENSEX25D1885000PE</v>
+        <v>SENSEX25D1884000PE</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -5758,7 +5759,7 @@
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>SENSEX!Q18</f>
-        <v>SENSEX25D1884800PE</v>
+        <v>SENSEX25D1883800PE</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -5802,7 +5803,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>SENSEX!Q19</f>
-        <v>SENSEX25D1884800CE</v>
+        <v>SENSEX25D1883800CE</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -5846,7 +5847,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>SENSEX!Q20</f>
-        <v>SENSEX25D1884900CE</v>
+        <v>SENSEX25D1883900CE</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -5890,7 +5891,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>SENSEX!Q21</f>
-        <v>SENSEX25D1885000CE</v>
+        <v>SENSEX25D1884000CE</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -5934,7 +5935,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>SENSEX!Q22</f>
-        <v>SENSEX25D1885300CE</v>
+        <v>SENSEX25D1884300CE</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -5978,7 +5979,7 @@
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>SENSEX!Q23</f>
-        <v>SENSEX25D1885600CE</v>
+        <v>SENSEX25D1884600CE</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -6022,7 +6023,7 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>SENSEX!Q24</f>
-        <v>SENSEX25D1885800CE</v>
+        <v>SENSEX25D1884800CE</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -6066,7 +6067,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>SENSEX!Q25</f>
-        <v>SENSEX25D1886800PE</v>
+        <v>SENSEX25D1885800PE</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -6110,7 +6111,7 @@
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>SENSEX!Q26</f>
-        <v>SENSEX25D1886700PE</v>
+        <v>SENSEX25D1885700PE</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -6154,7 +6155,7 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>SENSEX!Q27</f>
-        <v>SENSEX25D1886600PE</v>
+        <v>SENSEX25D1885600PE</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -6198,7 +6199,7 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>SENSEX!Q28</f>
-        <v>SENSEX25D1886300PE</v>
+        <v>SENSEX25D1885300PE</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -6242,7 +6243,7 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>SENSEX!Q29</f>
-        <v>SENSEX25D1886000PE</v>
+        <v>SENSEX25D1885000PE</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -6286,7 +6287,7 @@
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>SENSEX!Q30</f>
-        <v>SENSEX25D1885800PE</v>
+        <v>SENSEX25D1884800PE</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -6330,7 +6331,7 @@
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>SENSEX!Q3</f>
-        <v>SENSEX25D1885600CE</v>
+        <v>SENSEX25D1884600CE</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -6384,7 +6385,7 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>SENSEX!Q4</f>
-        <v>SENSEX25D1885700CE</v>
+        <v>SENSEX25D1884700CE</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -6438,7 +6439,7 @@
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>SENSEX!Q5</f>
-        <v>SENSEX25D1885800CE</v>
+        <v>SENSEX25D1884800CE</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -6492,7 +6493,7 @@
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>SENSEX!Q6</f>
-        <v>SENSEX25D1885900CE</v>
+        <v>SENSEX25D1884900CE</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -6546,7 +6547,7 @@
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>SENSEX!Q7</f>
-        <v>SENSEX25D1886000CE</v>
+        <v>SENSEX25D1885000CE</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -6600,7 +6601,7 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>SENSEX!Q8</f>
-        <v>SENSEX25D1886300CE</v>
+        <v>SENSEX25D1885300CE</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -6654,7 +6655,7 @@
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>SENSEX!Q9</f>
-        <v>SENSEX25D1886600CE</v>
+        <v>SENSEX25D1885600CE</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -6708,7 +6709,7 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>SENSEX!Q10</f>
-        <v>SENSEX25D1886800CE</v>
+        <v>SENSEX25D1885800CE</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -6762,7 +6763,7 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>SENSEX!Q11</f>
-        <v>SENSEX25D1886000PE</v>
+        <v>SENSEX25D1885000PE</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -6816,7 +6817,7 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>SENSEX!Q12</f>
-        <v>SENSEX25D1885900PE</v>
+        <v>SENSEX25D1884900PE</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -6870,7 +6871,7 @@
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>SENSEX!Q13</f>
-        <v>SENSEX25D1885800PE</v>
+        <v>SENSEX25D1884800PE</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -6924,7 +6925,7 @@
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>SENSEX!Q14</f>
-        <v>SENSEX25D1885700PE</v>
+        <v>SENSEX25D1884700PE</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -6978,7 +6979,7 @@
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>SENSEX!Q15</f>
-        <v>SENSEX25D1885600PE</v>
+        <v>SENSEX25D1884600PE</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -7032,7 +7033,7 @@
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>SENSEX!Q16</f>
-        <v>SENSEX25D1885300PE</v>
+        <v>SENSEX25D1884300PE</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -7086,7 +7087,7 @@
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>SENSEX!Q17</f>
-        <v>SENSEX25D1885000PE</v>
+        <v>SENSEX25D1884000PE</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -7140,7 +7141,7 @@
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>SENSEX!Q18</f>
-        <v>SENSEX25D1884800PE</v>
+        <v>SENSEX25D1883800PE</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -7194,7 +7195,7 @@
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>SENSEX!Q19</f>
-        <v>SENSEX25D1884800CE</v>
+        <v>SENSEX25D1883800CE</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -7248,7 +7249,7 @@
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>SENSEX!Q20</f>
-        <v>SENSEX25D1884900CE</v>
+        <v>SENSEX25D1883900CE</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -7302,7 +7303,7 @@
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>SENSEX!Q21</f>
-        <v>SENSEX25D1885000CE</v>
+        <v>SENSEX25D1884000CE</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -7356,7 +7357,7 @@
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>SENSEX!Q22</f>
-        <v>SENSEX25D1885300CE</v>
+        <v>SENSEX25D1884300CE</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -7410,7 +7411,7 @@
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>SENSEX!Q23</f>
-        <v>SENSEX25D1885600CE</v>
+        <v>SENSEX25D1884600CE</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -7464,7 +7465,7 @@
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>SENSEX!Q24</f>
-        <v>SENSEX25D1885800CE</v>
+        <v>SENSEX25D1884800CE</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
@@ -7518,7 +7519,7 @@
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>SENSEX!Q25</f>
-        <v>SENSEX25D1886800PE</v>
+        <v>SENSEX25D1885800PE</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
@@ -7572,7 +7573,7 @@
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>SENSEX!Q26</f>
-        <v>SENSEX25D1886700PE</v>
+        <v>SENSEX25D1885700PE</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -7626,7 +7627,7 @@
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>SENSEX!Q27</f>
-        <v>SENSEX25D1886600PE</v>
+        <v>SENSEX25D1885600PE</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
@@ -7680,7 +7681,7 @@
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>SENSEX!Q28</f>
-        <v>SENSEX25D1886300PE</v>
+        <v>SENSEX25D1885300PE</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
@@ -7734,7 +7735,7 @@
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>SENSEX!Q29</f>
-        <v>SENSEX25D1886000PE</v>
+        <v>SENSEX25D1885000PE</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -7788,7 +7789,7 @@
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>SENSEX!Q30</f>
-        <v>SENSEX25D1885800PE</v>
+        <v>SENSEX25D1884800PE</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -7842,7 +7843,7 @@
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>SENSEX!Q3</f>
-        <v>SENSEX25D1885600CE</v>
+        <v>SENSEX25D1884600CE</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -7896,7 +7897,7 @@
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>SENSEX!Q4</f>
-        <v>SENSEX25D1885700CE</v>
+        <v>SENSEX25D1884700CE</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -7950,7 +7951,7 @@
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>SENSEX!Q5</f>
-        <v>SENSEX25D1885800CE</v>
+        <v>SENSEX25D1884800CE</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
@@ -8004,7 +8005,7 @@
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>SENSEX!Q6</f>
-        <v>SENSEX25D1885900CE</v>
+        <v>SENSEX25D1884900CE</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -8058,7 +8059,7 @@
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>SENSEX!Q7</f>
-        <v>SENSEX25D1886000CE</v>
+        <v>SENSEX25D1885000CE</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
@@ -8112,7 +8113,7 @@
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>SENSEX!Q8</f>
-        <v>SENSEX25D1886300CE</v>
+        <v>SENSEX25D1885300CE</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -8166,7 +8167,7 @@
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>SENSEX!Q9</f>
-        <v>SENSEX25D1886600CE</v>
+        <v>SENSEX25D1885600CE</v>
       </c>
       <c r="B64" t="s">
         <v>26</v>
@@ -8220,7 +8221,7 @@
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>SENSEX!Q10</f>
-        <v>SENSEX25D1886800CE</v>
+        <v>SENSEX25D1885800CE</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -8274,7 +8275,7 @@
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>SENSEX!Q11</f>
-        <v>SENSEX25D1886000PE</v>
+        <v>SENSEX25D1885000PE</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
@@ -8328,7 +8329,7 @@
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>SENSEX!Q12</f>
-        <v>SENSEX25D1885900PE</v>
+        <v>SENSEX25D1884900PE</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -8382,7 +8383,7 @@
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>SENSEX!Q13</f>
-        <v>SENSEX25D1885800PE</v>
+        <v>SENSEX25D1884800PE</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -8436,7 +8437,7 @@
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>SENSEX!Q14</f>
-        <v>SENSEX25D1885700PE</v>
+        <v>SENSEX25D1884700PE</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
@@ -8490,7 +8491,7 @@
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>SENSEX!Q15</f>
-        <v>SENSEX25D1885600PE</v>
+        <v>SENSEX25D1884600PE</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
@@ -8544,7 +8545,7 @@
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f>SENSEX!Q16</f>
-        <v>SENSEX25D1885300PE</v>
+        <v>SENSEX25D1884300PE</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -8598,7 +8599,7 @@
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f>SENSEX!Q17</f>
-        <v>SENSEX25D1885000PE</v>
+        <v>SENSEX25D1884000PE</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
@@ -8652,7 +8653,7 @@
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f>SENSEX!Q18</f>
-        <v>SENSEX25D1884800PE</v>
+        <v>SENSEX25D1883800PE</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
@@ -8706,7 +8707,7 @@
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f>SENSEX!Q19</f>
-        <v>SENSEX25D1884800CE</v>
+        <v>SENSEX25D1883800CE</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -8760,7 +8761,7 @@
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f>SENSEX!Q20</f>
-        <v>SENSEX25D1884900CE</v>
+        <v>SENSEX25D1883900CE</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -8814,7 +8815,7 @@
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f>SENSEX!Q21</f>
-        <v>SENSEX25D1885000CE</v>
+        <v>SENSEX25D1884000CE</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
@@ -8868,7 +8869,7 @@
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f>SENSEX!Q22</f>
-        <v>SENSEX25D1885300CE</v>
+        <v>SENSEX25D1884300CE</v>
       </c>
       <c r="B77" t="s">
         <v>26</v>
@@ -8922,7 +8923,7 @@
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
         <f>SENSEX!Q23</f>
-        <v>SENSEX25D1885600CE</v>
+        <v>SENSEX25D1884600CE</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
@@ -8976,7 +8977,7 @@
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f>SENSEX!Q24</f>
-        <v>SENSEX25D1885800CE</v>
+        <v>SENSEX25D1884800CE</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
@@ -9030,7 +9031,7 @@
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
         <f>SENSEX!Q25</f>
-        <v>SENSEX25D1886800PE</v>
+        <v>SENSEX25D1885800PE</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
@@ -9084,7 +9085,7 @@
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
         <f>SENSEX!Q26</f>
-        <v>SENSEX25D1886700PE</v>
+        <v>SENSEX25D1885700PE</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
@@ -9138,7 +9139,7 @@
     <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
         <f>SENSEX!Q27</f>
-        <v>SENSEX25D1886600PE</v>
+        <v>SENSEX25D1885600PE</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
@@ -9192,7 +9193,7 @@
     <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" t="str">
         <f>SENSEX!Q28</f>
-        <v>SENSEX25D1886300PE</v>
+        <v>SENSEX25D1885300PE</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
@@ -9246,7 +9247,7 @@
     <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" t="str">
         <f>SENSEX!Q29</f>
-        <v>SENSEX25D1886000PE</v>
+        <v>SENSEX25D1885000PE</v>
       </c>
       <c r="B84" t="s">
         <v>26</v>
@@ -9300,7 +9301,7 @@
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" t="str">
         <f>SENSEX!Q30</f>
-        <v>SENSEX25D1885800PE</v>
+        <v>SENSEX25D1884800PE</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
@@ -9360,8 +9361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9449,7 +9450,7 @@
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>SENSEX!Q3</f>
-        <v>SENSEX25D1885600CE</v>
+        <v>SENSEX25D1884600CE</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -9493,7 +9494,7 @@
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>SENSEX!Q4</f>
-        <v>SENSEX25D1885700CE</v>
+        <v>SENSEX25D1884700CE</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -9537,7 +9538,7 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>SENSEX!Q5</f>
-        <v>SENSEX25D1885800CE</v>
+        <v>SENSEX25D1884800CE</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -9581,7 +9582,7 @@
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>SENSEX!Q6</f>
-        <v>SENSEX25D1885900CE</v>
+        <v>SENSEX25D1884900CE</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -9625,7 +9626,7 @@
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>SENSEX!Q7</f>
-        <v>SENSEX25D1886000CE</v>
+        <v>SENSEX25D1885000CE</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -9669,7 +9670,7 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>SENSEX!Q8</f>
-        <v>SENSEX25D1886300CE</v>
+        <v>SENSEX25D1885300CE</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -9713,7 +9714,7 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>SENSEX!Q9</f>
-        <v>SENSEX25D1886600CE</v>
+        <v>SENSEX25D1885600CE</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -9757,7 +9758,7 @@
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>SENSEX!Q10</f>
-        <v>SENSEX25D1886800CE</v>
+        <v>SENSEX25D1885800CE</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -9801,7 +9802,7 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>SENSEX!Q11</f>
-        <v>SENSEX25D1886000PE</v>
+        <v>SENSEX25D1885000PE</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -9845,7 +9846,7 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>SENSEX!Q12</f>
-        <v>SENSEX25D1885900PE</v>
+        <v>SENSEX25D1884900PE</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -9889,7 +9890,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>SENSEX!Q13</f>
-        <v>SENSEX25D1885800PE</v>
+        <v>SENSEX25D1884800PE</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -9933,7 +9934,7 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>SENSEX!Q14</f>
-        <v>SENSEX25D1885700PE</v>
+        <v>SENSEX25D1884700PE</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -9977,7 +9978,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>SENSEX!Q15</f>
-        <v>SENSEX25D1885600PE</v>
+        <v>SENSEX25D1884600PE</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -10021,7 +10022,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>SENSEX!Q16</f>
-        <v>SENSEX25D1885300PE</v>
+        <v>SENSEX25D1884300PE</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -10065,7 +10066,7 @@
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>SENSEX!Q17</f>
-        <v>SENSEX25D1885000PE</v>
+        <v>SENSEX25D1884000PE</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -10109,7 +10110,7 @@
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>SENSEX!Q18</f>
-        <v>SENSEX25D1884800PE</v>
+        <v>SENSEX25D1883800PE</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -10153,7 +10154,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>SENSEX!Q19</f>
-        <v>SENSEX25D1884800CE</v>
+        <v>SENSEX25D1883800CE</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -10197,7 +10198,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>SENSEX!Q20</f>
-        <v>SENSEX25D1884900CE</v>
+        <v>SENSEX25D1883900CE</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -10241,7 +10242,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>SENSEX!Q21</f>
-        <v>SENSEX25D1885000CE</v>
+        <v>SENSEX25D1884000CE</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -10285,7 +10286,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>SENSEX!Q22</f>
-        <v>SENSEX25D1885300CE</v>
+        <v>SENSEX25D1884300CE</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -10329,7 +10330,7 @@
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>SENSEX!Q23</f>
-        <v>SENSEX25D1885600CE</v>
+        <v>SENSEX25D1884600CE</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -10373,7 +10374,7 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>SENSEX!Q24</f>
-        <v>SENSEX25D1885800CE</v>
+        <v>SENSEX25D1884800CE</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -10417,7 +10418,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>SENSEX!Q25</f>
-        <v>SENSEX25D1886800PE</v>
+        <v>SENSEX25D1885800PE</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -10461,7 +10462,7 @@
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>SENSEX!Q26</f>
-        <v>SENSEX25D1886700PE</v>
+        <v>SENSEX25D1885700PE</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -10505,7 +10506,7 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>SENSEX!Q27</f>
-        <v>SENSEX25D1886600PE</v>
+        <v>SENSEX25D1885600PE</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -10549,7 +10550,7 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>SENSEX!Q28</f>
-        <v>SENSEX25D1886300PE</v>
+        <v>SENSEX25D1885300PE</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -10593,7 +10594,7 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>SENSEX!Q29</f>
-        <v>SENSEX25D1886000PE</v>
+        <v>SENSEX25D1885000PE</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -10637,7 +10638,7 @@
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>SENSEX!Q30</f>
-        <v>SENSEX25D1885800PE</v>
+        <v>SENSEX25D1884800PE</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -10681,7 +10682,7 @@
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>SENSEX!Q3</f>
-        <v>SENSEX25D1885600CE</v>
+        <v>SENSEX25D1884600CE</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -10736,7 +10737,7 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>SENSEX!Q4</f>
-        <v>SENSEX25D1885700CE</v>
+        <v>SENSEX25D1884700CE</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -10791,7 +10792,7 @@
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>SENSEX!Q5</f>
-        <v>SENSEX25D1885800CE</v>
+        <v>SENSEX25D1884800CE</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -10846,7 +10847,7 @@
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>SENSEX!Q6</f>
-        <v>SENSEX25D1885900CE</v>
+        <v>SENSEX25D1884900CE</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -10901,7 +10902,7 @@
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>SENSEX!Q7</f>
-        <v>SENSEX25D1886000CE</v>
+        <v>SENSEX25D1885000CE</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -10956,7 +10957,7 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>SENSEX!Q8</f>
-        <v>SENSEX25D1886300CE</v>
+        <v>SENSEX25D1885300CE</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -11011,7 +11012,7 @@
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>SENSEX!Q9</f>
-        <v>SENSEX25D1886600CE</v>
+        <v>SENSEX25D1885600CE</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -11066,7 +11067,7 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>SENSEX!Q10</f>
-        <v>SENSEX25D1886800CE</v>
+        <v>SENSEX25D1885800CE</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -11121,7 +11122,7 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>SENSEX!Q11</f>
-        <v>SENSEX25D1886000PE</v>
+        <v>SENSEX25D1885000PE</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -11176,7 +11177,7 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>SENSEX!Q12</f>
-        <v>SENSEX25D1885900PE</v>
+        <v>SENSEX25D1884900PE</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -11231,7 +11232,7 @@
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>SENSEX!Q13</f>
-        <v>SENSEX25D1885800PE</v>
+        <v>SENSEX25D1884800PE</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -11286,7 +11287,7 @@
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>SENSEX!Q14</f>
-        <v>SENSEX25D1885700PE</v>
+        <v>SENSEX25D1884700PE</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -11341,7 +11342,7 @@
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>SENSEX!Q15</f>
-        <v>SENSEX25D1885600PE</v>
+        <v>SENSEX25D1884600PE</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -11396,7 +11397,7 @@
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>SENSEX!Q16</f>
-        <v>SENSEX25D1885300PE</v>
+        <v>SENSEX25D1884300PE</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -11451,7 +11452,7 @@
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>SENSEX!Q17</f>
-        <v>SENSEX25D1885000PE</v>
+        <v>SENSEX25D1884000PE</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -11506,7 +11507,7 @@
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>SENSEX!Q18</f>
-        <v>SENSEX25D1884800PE</v>
+        <v>SENSEX25D1883800PE</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -11561,7 +11562,7 @@
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>SENSEX!Q19</f>
-        <v>SENSEX25D1884800CE</v>
+        <v>SENSEX25D1883800CE</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -11616,7 +11617,7 @@
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>SENSEX!Q20</f>
-        <v>SENSEX25D1884900CE</v>
+        <v>SENSEX25D1883900CE</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -11671,7 +11672,7 @@
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>SENSEX!Q21</f>
-        <v>SENSEX25D1885000CE</v>
+        <v>SENSEX25D1884000CE</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -11726,7 +11727,7 @@
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>SENSEX!Q22</f>
-        <v>SENSEX25D1885300CE</v>
+        <v>SENSEX25D1884300CE</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -11781,7 +11782,7 @@
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>SENSEX!Q23</f>
-        <v>SENSEX25D1885600CE</v>
+        <v>SENSEX25D1884600CE</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -11836,7 +11837,7 @@
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>SENSEX!Q24</f>
-        <v>SENSEX25D1885800CE</v>
+        <v>SENSEX25D1884800CE</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
@@ -11891,7 +11892,7 @@
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>SENSEX!Q25</f>
-        <v>SENSEX25D1886800PE</v>
+        <v>SENSEX25D1885800PE</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
@@ -11946,7 +11947,7 @@
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>SENSEX!Q26</f>
-        <v>SENSEX25D1886700PE</v>
+        <v>SENSEX25D1885700PE</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -12001,7 +12002,7 @@
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>SENSEX!Q27</f>
-        <v>SENSEX25D1886600PE</v>
+        <v>SENSEX25D1885600PE</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
@@ -12056,7 +12057,7 @@
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>SENSEX!Q28</f>
-        <v>SENSEX25D1886300PE</v>
+        <v>SENSEX25D1885300PE</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
@@ -12111,7 +12112,7 @@
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>SENSEX!Q29</f>
-        <v>SENSEX25D1886000PE</v>
+        <v>SENSEX25D1885000PE</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -12166,7 +12167,7 @@
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>SENSEX!Q30</f>
-        <v>SENSEX25D1885800PE</v>
+        <v>SENSEX25D1884800PE</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -12221,7 +12222,7 @@
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>SENSEX!Q3</f>
-        <v>SENSEX25D1885600CE</v>
+        <v>SENSEX25D1884600CE</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -12276,7 +12277,7 @@
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>SENSEX!Q4</f>
-        <v>SENSEX25D1885700CE</v>
+        <v>SENSEX25D1884700CE</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -12331,7 +12332,7 @@
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>SENSEX!Q5</f>
-        <v>SENSEX25D1885800CE</v>
+        <v>SENSEX25D1884800CE</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
@@ -12386,7 +12387,7 @@
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>SENSEX!Q6</f>
-        <v>SENSEX25D1885900CE</v>
+        <v>SENSEX25D1884900CE</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -12441,7 +12442,7 @@
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>SENSEX!Q7</f>
-        <v>SENSEX25D1886000CE</v>
+        <v>SENSEX25D1885000CE</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
@@ -12496,7 +12497,7 @@
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>SENSEX!Q8</f>
-        <v>SENSEX25D1886300CE</v>
+        <v>SENSEX25D1885300CE</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -12551,7 +12552,7 @@
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>SENSEX!Q9</f>
-        <v>SENSEX25D1886600CE</v>
+        <v>SENSEX25D1885600CE</v>
       </c>
       <c r="B64" t="s">
         <v>26</v>
@@ -12606,7 +12607,7 @@
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>SENSEX!Q10</f>
-        <v>SENSEX25D1886800CE</v>
+        <v>SENSEX25D1885800CE</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -12661,7 +12662,7 @@
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>SENSEX!Q11</f>
-        <v>SENSEX25D1886000PE</v>
+        <v>SENSEX25D1885000PE</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
@@ -12716,7 +12717,7 @@
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>SENSEX!Q12</f>
-        <v>SENSEX25D1885900PE</v>
+        <v>SENSEX25D1884900PE</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -12771,7 +12772,7 @@
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>SENSEX!Q13</f>
-        <v>SENSEX25D1885800PE</v>
+        <v>SENSEX25D1884800PE</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -12826,7 +12827,7 @@
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>SENSEX!Q14</f>
-        <v>SENSEX25D1885700PE</v>
+        <v>SENSEX25D1884700PE</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
@@ -12881,7 +12882,7 @@
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>SENSEX!Q15</f>
-        <v>SENSEX25D1885600PE</v>
+        <v>SENSEX25D1884600PE</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
@@ -12936,7 +12937,7 @@
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f>SENSEX!Q16</f>
-        <v>SENSEX25D1885300PE</v>
+        <v>SENSEX25D1884300PE</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -12991,7 +12992,7 @@
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f>SENSEX!Q17</f>
-        <v>SENSEX25D1885000PE</v>
+        <v>SENSEX25D1884000PE</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
@@ -13046,7 +13047,7 @@
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f>SENSEX!Q18</f>
-        <v>SENSEX25D1884800PE</v>
+        <v>SENSEX25D1883800PE</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
@@ -13101,7 +13102,7 @@
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f>SENSEX!Q19</f>
-        <v>SENSEX25D1884800CE</v>
+        <v>SENSEX25D1883800CE</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -13156,7 +13157,7 @@
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f>SENSEX!Q20</f>
-        <v>SENSEX25D1884900CE</v>
+        <v>SENSEX25D1883900CE</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -13211,7 +13212,7 @@
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f>SENSEX!Q21</f>
-        <v>SENSEX25D1885000CE</v>
+        <v>SENSEX25D1884000CE</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
@@ -13266,7 +13267,7 @@
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f>SENSEX!Q22</f>
-        <v>SENSEX25D1885300CE</v>
+        <v>SENSEX25D1884300CE</v>
       </c>
       <c r="B77" t="s">
         <v>26</v>
@@ -13321,7 +13322,7 @@
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
         <f>SENSEX!Q23</f>
-        <v>SENSEX25D1885600CE</v>
+        <v>SENSEX25D1884600CE</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
@@ -13376,7 +13377,7 @@
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f>SENSEX!Q24</f>
-        <v>SENSEX25D1885800CE</v>
+        <v>SENSEX25D1884800CE</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
@@ -13431,7 +13432,7 @@
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
         <f>SENSEX!Q25</f>
-        <v>SENSEX25D1886800PE</v>
+        <v>SENSEX25D1885800PE</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
@@ -13486,7 +13487,7 @@
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
         <f>SENSEX!Q26</f>
-        <v>SENSEX25D1886700PE</v>
+        <v>SENSEX25D1885700PE</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
@@ -13541,7 +13542,7 @@
     <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
         <f>SENSEX!Q27</f>
-        <v>SENSEX25D1886600PE</v>
+        <v>SENSEX25D1885600PE</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
@@ -13596,7 +13597,7 @@
     <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" t="str">
         <f>SENSEX!Q28</f>
-        <v>SENSEX25D1886300PE</v>
+        <v>SENSEX25D1885300PE</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
@@ -13651,7 +13652,7 @@
     <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" t="str">
         <f>SENSEX!Q29</f>
-        <v>SENSEX25D1886000PE</v>
+        <v>SENSEX25D1885000PE</v>
       </c>
       <c r="B84" t="s">
         <v>26</v>
@@ -13706,7 +13707,7 @@
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" t="str">
         <f>SENSEX!Q30</f>
-        <v>SENSEX25D1885800PE</v>
+        <v>SENSEX25D1884800PE</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
@@ -13770,7 +13771,7 @@
   <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13780,7 +13781,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2">
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>31</v>
@@ -13875,11 +13876,11 @@
       </c>
       <c r="B3" s="9">
         <f>J3-K3</f>
-        <v>85600</v>
+        <v>84600</v>
       </c>
       <c r="C3" s="9">
         <f>B3</f>
-        <v>85600</v>
+        <v>84600</v>
       </c>
       <c r="D3" s="10">
         <v>338</v>
@@ -13901,7 +13902,7 @@
       </c>
       <c r="J3" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -13926,7 +13927,7 @@
       </c>
       <c r="Q3" t="str">
         <f>_xlfn.CONCAT(M3,N3,O3,P3,C3,A3)</f>
-        <v>SENSEX25D1885600CE</v>
+        <v>SENSEX25D1884600CE</v>
       </c>
       <c r="R3">
         <v>495</v>
@@ -13956,11 +13957,11 @@
       </c>
       <c r="B4" s="9">
         <f t="shared" ref="B4:B30" si="0">J4-K4</f>
-        <v>85700</v>
+        <v>84700</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" ref="C4:C30" si="1">B4</f>
-        <v>85700</v>
+        <v>84700</v>
       </c>
       <c r="D4" s="10">
         <v>338</v>
@@ -13982,7 +13983,7 @@
       </c>
       <c r="J4" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K4" s="9">
         <v>100</v>
@@ -14007,7 +14008,7 @@
       </c>
       <c r="Q4" t="str">
         <f>_xlfn.CONCAT(M4,N4,O4,P4,C4,A4)</f>
-        <v>SENSEX25D1885700CE</v>
+        <v>SENSEX25D1884700CE</v>
       </c>
       <c r="R4">
         <v>495</v>
@@ -14037,11 +14038,11 @@
       </c>
       <c r="B5" s="9">
         <f t="shared" si="0"/>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="1"/>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="D5" s="13">
         <v>338</v>
@@ -14063,7 +14064,7 @@
       </c>
       <c r="J5" s="12">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K5" s="12">
         <v>0</v>
@@ -14088,7 +14089,7 @@
       </c>
       <c r="Q5" t="str">
         <f t="shared" ref="Q5:Q10" si="2">_xlfn.CONCAT(M5,N5,O5,P5,C5,A5)</f>
-        <v>SENSEX25D1885800CE</v>
+        <v>SENSEX25D1884800CE</v>
       </c>
       <c r="R5">
         <v>495</v>
@@ -14118,11 +14119,11 @@
       </c>
       <c r="B6" s="9">
         <f t="shared" si="0"/>
-        <v>85900</v>
+        <v>84900</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="1"/>
-        <v>85900</v>
+        <v>84900</v>
       </c>
       <c r="D6" s="10">
         <v>338</v>
@@ -14144,7 +14145,7 @@
       </c>
       <c r="J6" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K6" s="9">
         <v>-100</v>
@@ -14169,7 +14170,7 @@
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="2"/>
-        <v>SENSEX25D1885900CE</v>
+        <v>SENSEX25D1884900CE</v>
       </c>
       <c r="R6">
         <v>495</v>
@@ -14199,11 +14200,11 @@
       </c>
       <c r="B7" s="9">
         <f>J7-K7</f>
-        <v>86000</v>
+        <v>85000</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="1"/>
-        <v>86000</v>
+        <v>85000</v>
       </c>
       <c r="D7" s="10">
         <v>288</v>
@@ -14225,7 +14226,7 @@
       </c>
       <c r="J7" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K7" s="9">
         <v>-200</v>
@@ -14250,7 +14251,7 @@
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="2"/>
-        <v>SENSEX25D1886000CE</v>
+        <v>SENSEX25D1885000CE</v>
       </c>
       <c r="R7">
         <v>448</v>
@@ -14280,11 +14281,11 @@
       </c>
       <c r="B8" s="9">
         <f t="shared" si="0"/>
-        <v>86300</v>
+        <v>85300</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="1"/>
-        <v>86300</v>
+        <v>85300</v>
       </c>
       <c r="D8" s="10">
         <v>168</v>
@@ -14306,7 +14307,7 @@
       </c>
       <c r="J8" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K8" s="9">
         <v>-500</v>
@@ -14331,7 +14332,7 @@
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="2"/>
-        <v>SENSEX25D1886300CE</v>
+        <v>SENSEX25D1885300CE</v>
       </c>
       <c r="R8">
         <v>238</v>
@@ -14361,11 +14362,11 @@
       </c>
       <c r="B9" s="9">
         <f t="shared" si="0"/>
-        <v>86600</v>
+        <v>85600</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="1"/>
-        <v>86600</v>
+        <v>85600</v>
       </c>
       <c r="D9" s="10">
         <v>68</v>
@@ -14387,7 +14388,7 @@
       </c>
       <c r="J9" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K9" s="9">
         <v>-800</v>
@@ -14412,7 +14413,7 @@
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="2"/>
-        <v>SENSEX25D1886600CE</v>
+        <v>SENSEX25D1885600CE</v>
       </c>
       <c r="R9">
         <v>168</v>
@@ -14442,11 +14443,11 @@
       </c>
       <c r="B10" s="9">
         <f t="shared" si="0"/>
-        <v>86800</v>
+        <v>85800</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="1"/>
-        <v>86800</v>
+        <v>85800</v>
       </c>
       <c r="D10" s="10">
         <v>168</v>
@@ -14468,7 +14469,7 @@
       </c>
       <c r="J10" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K10" s="9">
         <v>-1000</v>
@@ -14493,7 +14494,7 @@
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="2"/>
-        <v>SENSEX25D1886800CE</v>
+        <v>SENSEX25D1885800CE</v>
       </c>
       <c r="R10">
         <v>238</v>
@@ -14523,11 +14524,11 @@
       </c>
       <c r="B11" s="9">
         <f t="shared" si="0"/>
-        <v>86000</v>
+        <v>85000</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="1"/>
-        <v>86000</v>
+        <v>85000</v>
       </c>
       <c r="D11" s="10">
         <v>338</v>
@@ -14549,7 +14550,7 @@
       </c>
       <c r="J11" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K11" s="9">
         <v>-200</v>
@@ -14574,7 +14575,7 @@
       </c>
       <c r="Q11" t="str">
         <f t="shared" ref="Q11:Q30" si="3">_xlfn.CONCAT(M11,N11,O11,P11,C11,A11)</f>
-        <v>SENSEX25D1886000PE</v>
+        <v>SENSEX25D1885000PE</v>
       </c>
       <c r="R11">
         <v>495</v>
@@ -14604,11 +14605,11 @@
       </c>
       <c r="B12" s="9">
         <f t="shared" si="0"/>
-        <v>85900</v>
+        <v>84900</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="1"/>
-        <v>85900</v>
+        <v>84900</v>
       </c>
       <c r="D12" s="10">
         <v>338</v>
@@ -14630,7 +14631,7 @@
       </c>
       <c r="J12" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K12" s="9">
         <v>-100</v>
@@ -14655,7 +14656,7 @@
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="3"/>
-        <v>SENSEX25D1885900PE</v>
+        <v>SENSEX25D1884900PE</v>
       </c>
       <c r="R12">
         <v>495</v>
@@ -14685,11 +14686,11 @@
       </c>
       <c r="B13" s="9">
         <f t="shared" si="0"/>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="1"/>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="D13" s="13">
         <v>338</v>
@@ -14711,7 +14712,7 @@
       </c>
       <c r="J13" s="12">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K13" s="12">
         <v>0</v>
@@ -14736,7 +14737,7 @@
       </c>
       <c r="Q13" t="str">
         <f t="shared" si="3"/>
-        <v>SENSEX25D1885800PE</v>
+        <v>SENSEX25D1884800PE</v>
       </c>
       <c r="R13">
         <v>495</v>
@@ -14766,11 +14767,11 @@
       </c>
       <c r="B14" s="9">
         <f t="shared" si="0"/>
-        <v>85700</v>
+        <v>84700</v>
       </c>
       <c r="C14" s="9">
         <f t="shared" si="1"/>
-        <v>85700</v>
+        <v>84700</v>
       </c>
       <c r="D14" s="10">
         <v>338</v>
@@ -14792,7 +14793,7 @@
       </c>
       <c r="J14" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K14" s="9">
         <v>100</v>
@@ -14817,7 +14818,7 @@
       </c>
       <c r="Q14" t="str">
         <f t="shared" si="3"/>
-        <v>SENSEX25D1885700PE</v>
+        <v>SENSEX25D1884700PE</v>
       </c>
       <c r="R14">
         <v>495</v>
@@ -14847,11 +14848,11 @@
       </c>
       <c r="B15" s="9">
         <f t="shared" si="0"/>
-        <v>85600</v>
+        <v>84600</v>
       </c>
       <c r="C15" s="9">
         <f t="shared" si="1"/>
-        <v>85600</v>
+        <v>84600</v>
       </c>
       <c r="D15" s="10">
         <v>288</v>
@@ -14873,7 +14874,7 @@
       </c>
       <c r="J15" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K15" s="9">
         <v>200</v>
@@ -14898,7 +14899,7 @@
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="3"/>
-        <v>SENSEX25D1885600PE</v>
+        <v>SENSEX25D1884600PE</v>
       </c>
       <c r="R15">
         <v>448</v>
@@ -14928,11 +14929,11 @@
       </c>
       <c r="B16" s="9">
         <f t="shared" si="0"/>
-        <v>85300</v>
+        <v>84300</v>
       </c>
       <c r="C16" s="9">
         <f t="shared" si="1"/>
-        <v>85300</v>
+        <v>84300</v>
       </c>
       <c r="D16" s="10">
         <v>168</v>
@@ -14954,7 +14955,7 @@
       </c>
       <c r="J16" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K16" s="9">
         <v>500</v>
@@ -14979,7 +14980,7 @@
       </c>
       <c r="Q16" t="str">
         <f t="shared" si="3"/>
-        <v>SENSEX25D1885300PE</v>
+        <v>SENSEX25D1884300PE</v>
       </c>
       <c r="R16">
         <v>238</v>
@@ -15009,11 +15010,11 @@
       </c>
       <c r="B17" s="9">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>84000</v>
       </c>
       <c r="C17" s="9">
         <f t="shared" si="1"/>
-        <v>85000</v>
+        <v>84000</v>
       </c>
       <c r="D17" s="10">
         <v>68</v>
@@ -15035,7 +15036,7 @@
       </c>
       <c r="J17" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K17" s="9">
         <v>800</v>
@@ -15060,7 +15061,7 @@
       </c>
       <c r="Q17" t="str">
         <f t="shared" si="3"/>
-        <v>SENSEX25D1885000PE</v>
+        <v>SENSEX25D1884000PE</v>
       </c>
       <c r="R17">
         <v>168</v>
@@ -15090,11 +15091,11 @@
       </c>
       <c r="B18" s="9">
         <f t="shared" si="0"/>
-        <v>84800</v>
+        <v>83800</v>
       </c>
       <c r="C18" s="9">
         <f t="shared" si="1"/>
-        <v>84800</v>
+        <v>83800</v>
       </c>
       <c r="D18" s="10">
         <v>168</v>
@@ -15116,7 +15117,7 @@
       </c>
       <c r="J18" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K18" s="9">
         <v>1000</v>
@@ -15141,7 +15142,7 @@
       </c>
       <c r="Q18" t="str">
         <f t="shared" si="3"/>
-        <v>SENSEX25D1884800PE</v>
+        <v>SENSEX25D1883800PE</v>
       </c>
       <c r="R18">
         <v>238</v>
@@ -15171,11 +15172,11 @@
       </c>
       <c r="B19" s="9">
         <f t="shared" si="0"/>
-        <v>84800</v>
+        <v>83800</v>
       </c>
       <c r="C19" s="9">
         <f t="shared" si="1"/>
-        <v>84800</v>
+        <v>83800</v>
       </c>
       <c r="D19" s="13">
         <v>338</v>
@@ -15197,7 +15198,7 @@
       </c>
       <c r="J19" s="12">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K19" s="12">
         <v>1000</v>
@@ -15222,7 +15223,7 @@
       </c>
       <c r="Q19" t="str">
         <f t="shared" si="3"/>
-        <v>SENSEX25D1884800CE</v>
+        <v>SENSEX25D1883800CE</v>
       </c>
       <c r="R19">
         <v>495</v>
@@ -15252,11 +15253,11 @@
       </c>
       <c r="B20" s="9">
         <f t="shared" si="0"/>
-        <v>84900</v>
+        <v>83900</v>
       </c>
       <c r="C20" s="9">
         <f t="shared" si="1"/>
-        <v>84900</v>
+        <v>83900</v>
       </c>
       <c r="D20" s="10">
         <v>338</v>
@@ -15278,7 +15279,7 @@
       </c>
       <c r="J20" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K20" s="9">
         <v>900</v>
@@ -15303,7 +15304,7 @@
       </c>
       <c r="Q20" t="str">
         <f t="shared" si="3"/>
-        <v>SENSEX25D1884900CE</v>
+        <v>SENSEX25D1883900CE</v>
       </c>
       <c r="R20">
         <v>495</v>
@@ -15333,11 +15334,11 @@
       </c>
       <c r="B21" s="9">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>84000</v>
       </c>
       <c r="C21" s="9">
         <f t="shared" si="1"/>
-        <v>85000</v>
+        <v>84000</v>
       </c>
       <c r="D21" s="10">
         <v>288</v>
@@ -15359,7 +15360,7 @@
       </c>
       <c r="J21" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K21" s="9">
         <v>800</v>
@@ -15384,7 +15385,7 @@
       </c>
       <c r="Q21" t="str">
         <f t="shared" si="3"/>
-        <v>SENSEX25D1885000CE</v>
+        <v>SENSEX25D1884000CE</v>
       </c>
       <c r="R21">
         <v>448</v>
@@ -15414,11 +15415,11 @@
       </c>
       <c r="B22" s="9">
         <f t="shared" si="0"/>
-        <v>85300</v>
+        <v>84300</v>
       </c>
       <c r="C22" s="9">
         <f t="shared" si="1"/>
-        <v>85300</v>
+        <v>84300</v>
       </c>
       <c r="D22" s="10">
         <v>168</v>
@@ -15440,7 +15441,7 @@
       </c>
       <c r="J22" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K22" s="9">
         <v>500</v>
@@ -15465,7 +15466,7 @@
       </c>
       <c r="Q22" t="str">
         <f t="shared" si="3"/>
-        <v>SENSEX25D1885300CE</v>
+        <v>SENSEX25D1884300CE</v>
       </c>
       <c r="R22">
         <v>238</v>
@@ -15495,11 +15496,11 @@
       </c>
       <c r="B23" s="9">
         <f t="shared" si="0"/>
-        <v>85600</v>
+        <v>84600</v>
       </c>
       <c r="C23" s="9">
         <f t="shared" si="1"/>
-        <v>85600</v>
+        <v>84600</v>
       </c>
       <c r="D23" s="10">
         <v>68</v>
@@ -15521,7 +15522,7 @@
       </c>
       <c r="J23" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K23" s="9">
         <v>200</v>
@@ -15546,7 +15547,7 @@
       </c>
       <c r="Q23" t="str">
         <f t="shared" si="3"/>
-        <v>SENSEX25D1885600CE</v>
+        <v>SENSEX25D1884600CE</v>
       </c>
       <c r="R23">
         <v>168</v>
@@ -15576,11 +15577,11 @@
       </c>
       <c r="B24" s="9">
         <f t="shared" si="0"/>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="C24" s="9">
         <f t="shared" si="1"/>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="D24" s="10">
         <v>168</v>
@@ -15602,7 +15603,7 @@
       </c>
       <c r="J24" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K24" s="9">
         <v>0</v>
@@ -15627,7 +15628,7 @@
       </c>
       <c r="Q24" t="str">
         <f t="shared" si="3"/>
-        <v>SENSEX25D1885800CE</v>
+        <v>SENSEX25D1884800CE</v>
       </c>
       <c r="R24">
         <v>238</v>
@@ -15657,11 +15658,11 @@
       </c>
       <c r="B25" s="9">
         <f t="shared" si="0"/>
-        <v>86800</v>
+        <v>85800</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" si="1"/>
-        <v>86800</v>
+        <v>85800</v>
       </c>
       <c r="D25" s="10">
         <v>338</v>
@@ -15683,7 +15684,7 @@
       </c>
       <c r="J25" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K25" s="9">
         <v>-1000</v>
@@ -15708,7 +15709,7 @@
       </c>
       <c r="Q25" t="str">
         <f t="shared" si="3"/>
-        <v>SENSEX25D1886800PE</v>
+        <v>SENSEX25D1885800PE</v>
       </c>
       <c r="R25">
         <v>495</v>
@@ -15738,11 +15739,11 @@
       </c>
       <c r="B26" s="9">
         <f t="shared" si="0"/>
-        <v>86700</v>
+        <v>85700</v>
       </c>
       <c r="C26" s="9">
         <f t="shared" si="1"/>
-        <v>86700</v>
+        <v>85700</v>
       </c>
       <c r="D26" s="10">
         <v>338</v>
@@ -15764,7 +15765,7 @@
       </c>
       <c r="J26" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K26" s="9">
         <v>-900</v>
@@ -15789,7 +15790,7 @@
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="3"/>
-        <v>SENSEX25D1886700PE</v>
+        <v>SENSEX25D1885700PE</v>
       </c>
       <c r="R26">
         <v>495</v>
@@ -15819,11 +15820,11 @@
       </c>
       <c r="B27" s="9">
         <f t="shared" si="0"/>
-        <v>86600</v>
+        <v>85600</v>
       </c>
       <c r="C27" s="9">
         <f t="shared" si="1"/>
-        <v>86600</v>
+        <v>85600</v>
       </c>
       <c r="D27" s="10">
         <v>288</v>
@@ -15845,7 +15846,7 @@
       </c>
       <c r="J27" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K27" s="9">
         <v>-800</v>
@@ -15870,7 +15871,7 @@
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="3"/>
-        <v>SENSEX25D1886600PE</v>
+        <v>SENSEX25D1885600PE</v>
       </c>
       <c r="R27">
         <v>448</v>
@@ -15900,11 +15901,11 @@
       </c>
       <c r="B28" s="9">
         <f t="shared" si="0"/>
-        <v>86300</v>
+        <v>85300</v>
       </c>
       <c r="C28" s="9">
         <f t="shared" si="1"/>
-        <v>86300</v>
+        <v>85300</v>
       </c>
       <c r="D28" s="10">
         <v>168</v>
@@ -15926,7 +15927,7 @@
       </c>
       <c r="J28" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K28" s="9">
         <v>-500</v>
@@ -15951,7 +15952,7 @@
       </c>
       <c r="Q28" t="str">
         <f t="shared" si="3"/>
-        <v>SENSEX25D1886300PE</v>
+        <v>SENSEX25D1885300PE</v>
       </c>
       <c r="R28">
         <v>238</v>
@@ -15981,11 +15982,11 @@
       </c>
       <c r="B29" s="9">
         <f t="shared" si="0"/>
-        <v>86000</v>
+        <v>85000</v>
       </c>
       <c r="C29" s="9">
         <f t="shared" si="1"/>
-        <v>86000</v>
+        <v>85000</v>
       </c>
       <c r="D29" s="10">
         <v>68</v>
@@ -16007,7 +16008,7 @@
       </c>
       <c r="J29" s="9">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K29" s="9">
         <v>-200</v>
@@ -16032,7 +16033,7 @@
       </c>
       <c r="Q29" t="str">
         <f t="shared" si="3"/>
-        <v>SENSEX25D1886000PE</v>
+        <v>SENSEX25D1885000PE</v>
       </c>
       <c r="R29">
         <v>168</v>
@@ -16062,11 +16063,11 @@
       </c>
       <c r="B30" s="9">
         <f t="shared" si="0"/>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="C30" s="9">
         <f t="shared" si="1"/>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="D30" s="13">
         <v>168</v>
@@ -16088,7 +16089,7 @@
       </c>
       <c r="J30" s="12">
         <f>A1</f>
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="K30" s="12">
         <v>0</v>
@@ -16113,7 +16114,7 @@
       </c>
       <c r="Q30" t="str">
         <f t="shared" si="3"/>
-        <v>SENSEX25D1885800PE</v>
+        <v>SENSEX25D1884800PE</v>
       </c>
       <c r="R30">
         <v>238</v>
